--- a/graphics/vergelijking_recon_automatisch.xlsx
+++ b/graphics/vergelijking_recon_automatisch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogent-my.sharepoint.com/personal/lucca_strobbe_student_hogent_be/Documents/Documenten/informatica_24-25/BP/latex-hogent-bachproef/graphics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="8_{0F4F5B3F-F916-4F52-B10F-28E7F6432CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A79C487D-5B14-41FE-9597-CF25625FFDF4}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{724C1790-C3A8-4367-B425-6ECE3E1E18C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A423B39-BE7B-4FE4-BA01-E529AD30ED83}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3984AAF0-BB45-464A-8B81-864738E25F8B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>tool</t>
   </si>
@@ -194,24 +194,9 @@
     <t>3579.53sec</t>
   </si>
   <si>
-    <t>TCP-poorten 21 tot 8180. Open TCP-poorten: 21 (FTP), 22 (SSH), 23 (Telnet), 25 (SMTP), 53 (DNS), 80 (HTTP), 111 (RPC), 139 (NetBIOS-SSN), 445 (SMB), 512 (exec), 513 (login), 514 (shell), 1099 (RMI), 1524 (ingreslock), 2049 (NFS), 2121 (FTP-alt), 3306 (MySQL), 3632 (distcc), 5432 (PostgreSQL), 5900 (VNC), 6000 (X11), 6200, 6667 (IRC), 6697 (IRC), 8009 (AJP), 8180 (HTTP-alt). Opmerkingen: Onbekende diensten gedetecteerd op poorten 111, 445, 512, 513, 514, 1099, 1524, 2049, 2121, 3632, 5432, 5900, 6000, 6200, 6667, 6697, 8009 en 8180.</t>
-  </si>
-  <si>
-    <t>TCP-poorten 1 tot 65535. Open TCP-poorten: 21 (FTP), 22 (SSH), 23 (Telnet), 25 (SMTP), 53 (DNS), 80 (HTTP), 111 (RPC), 139 (NetBIOS-SSN), 445 (SMB), 512 (exec), 513 (login), 514 (shell), 1099 (RMI), 1524 (ingreslock), 2049 (NFS), 2121 (FTP-alt), 3306 (MySQL), 3632 (distcc), 5432 (PostgreSQL), 5900 (VNC), 6000 (X11), 6200, 6667 (IRC), 6697 (IRC), 8009 (AJP), 8180 (HTTP-alt), 8787, 33440, 36593, 36607, 41276. Opmerkingen: Onbekende diensten gedetecteerd op poorten 111, 445, 512, 513, 514, 1099, 1524, 2049, 2121, 3632, 5432, 5900, 6000, 6200, 6667, 6697, 8009, 8180, 8787, 33440, 36593, 36607 en 41276.</t>
-  </si>
-  <si>
-    <t>CyberScan uitgevoerd op IP 192.168.56.11 voor UDP-pingtest op poorten 53 tot 161. Resultaat: IP 192.168.56.11 is bereikbaar (alive). Geen specifieke open UDP-poorten vermeld in de output. Opmerkingen: Scan bevestigt alleen dat het doel bereikbaar is via UDP; geen gedetailleerde poortinformatie beschikbaar.</t>
-  </si>
-  <si>
-    <t>Open TCP-poorten: 80 (HTTP). HTTP-details (poort 80): Server: Apache/2.2.8 (Ubuntu) DAV/2, PHP: 5.2.4-2ubuntu5.10, Titel: Metasploitable2 - Linux, WebDAV: versie 2. Vulnerabilities (Apache 2.2.8): Meerdere kwetsbaarheden gedetecteerd, waaronder 13 exploits met CVSS-score 10.0 (o.a. CVE-2010-0425), 46 exploits met CVSS-score 9.8 (o.a. CVE-2024-38476, CVE-2022-31813), en diverse andere met scores van 9.1 tot 1.2. Overige bevindingen: Geen WAF gedetecteerd (7 verzoeken uitgevoerd). Authenticatie niet vereist voor pad "/". Formulieren gedetecteerd op: /phpMyAdmin/, /dvwa/, /twiki/TWikiDocumentation.html, /phpMyAdmin/index.php. Geen sitemap.xml gevonden. PHP-info gedetecteerd op /phpinfo.php. Ontbrekende security-headers: Strict-Transport-Security, Permissions-Policy, X-Content-Type-Options, Clear-Site-Data, Cross-Origin-Embedder-Policy, Cross-Origin-Opener-Policy, Cross-Origin-Resource-Policy, Content-Security-Policy, X-Frame-Options, X-Permitted-Cross-Domain-Policies, Referrer-Policy. Overige diensten: FTP anonieme login (poort 21), Samba 3.0.20-Debian (poort 445, SMB 1.0), VNC (poort 5900, RFB 003.003), OpenSSH 4.7p1 (poort 22).</t>
-  </si>
-  <si>
     <t>sniper -t 192.168.56.11 -m stealth</t>
   </si>
   <si>
-    <t>Poortscan van alle TCP- en UDP-poorten;sniper -t 192.168.56.11 -m normal -w metasploitable;Open poorten: 21/tcp (FTP, vsftpd 2.3.4), 22/tcp (SSH, OpenSSH 4.7p1), 23/tcp (Telnet, Linux telnetd), 25/tcp (SMTP, Postfix), 53/tcp (DNS, ISC BIND 9.4.2), 80/tcp (HTTP, Apache 2.2.8), 111/tcp (RPCbind), 139/tcp (NetBIOS, Samba 3.0.20), 445/tcp (Microsoft-DS), 512/tcp (Exec, netkit-rsh), 513/tcp (Login), 514/tcp (Shell), 1099/tcp (Java-RMI, GNU Classpath), 1524/tcp (Ingreslock), 2049/tcp (NFS), 2121/tcp (FTP, ccproxy-ftp), 3306/tcp (MySQL, 5.0.51a), 3632/tcp (Distccd, v1), 5432/tcp (PostgreSQL, 8.3.0-8.3.7), 5900/tcp (VNC, protocol 3.3), 6000/tcp (X11), 6200/tcp (LM-X), 6667/tcp (IRC, UnrealIRCd), 6697/tcp (IRCs-u), 8009/tcp (AJP13), 8180/tcp (Unknown), 8787/tcp (Msgsrvr), 33440/tcp (Unknown), 36593/tcp (Unknown), 36607/tcp (Unknown), 41276/tcp (Unknown), 53/udp (DNS), 137/udp (NetBIOS-NS), 138/udp (NetBIOS-DGM), 2049/udp (NFS). MAC-adres: 08:00:27:F1:30:6D (Oracle VirtualBox). Kwetsbaarheidsscan op poort 21 (FTP);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: vsftpd 2.3.4. Kwetsbaarheid: CVE-2011-2523 (CVSS: 9.8, backdoor vulnerability). Kwetsbaarheidsscan op poort 22 (SSH);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: OpenSSH 4.7p1. Kwetsbaarheden: CVE-2023-38408 (CVSS: 9.8, remote code execution), CVE-2016-1908 (CVSS: 9.8, privilege escalation). Kwetsbaarheidsscan op poort 53 (DNS);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: ISC BIND 9.4.2. Kwetsbaarheden: CVE-2008-0122 (CVSS: 10.0, buffer overflow), CVE-2021-25216 (CVSS: 9.8, remote code execution). Kwetsbaarheidsscan op poort 80 (HTTP);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: Apache 2.2.8 (Ubuntu) DAV/2. Kwetsbaarheden: CVE-2010-0425 (CVSS: 10.0, remote code execution), CVE-2024-38476 (CVSS: 9.8, multiple exploits), CVE-2022-31813 (CVSS: 9.8, denial of service), en 10+ andere CVE's (CVSS ≥ 9.0). Kwetsbaarheidsscan op poort 3306 (MySQL);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: MySQL 5.0.51a. Kwetsbaarheid: CVE-2017-15945 (CVSS: 7.8, privilege escalation). Kwetsbaarheidsscan op poort 5432 (PostgreSQL);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: PostgreSQL 8.3.0-8.3.7. Kwetsbaarheden: CVE-2013-1903 (CVSS: 10.0, remote code execution), CVE-2013-1902 (CVSS: 10.0, denial of service), CVE-2019-10211 (CVSS: 9.8, authentication bypass), en 10+ andere CVE's (CVSS ≥ 8.8). Webscan op poort 80 (HTTP);sniper -t 192.168.56.11 -m normal -w metasploitable;Server: Apache 2.2.8 (Ubuntu) DAV/2. Gevoelige paden: /phpMyAdmin/, /phpMyAdmin/index.php, /dvwa/login.php. Ontbrekende security-headers: Content-Security-Policy, X-Frame-Options. Kwetsbaarheidsscan met Nuclei;sniper -t 192.168.56.11 -m normal -w metasploitable;Geen kritieke kwetsbaarheden gedetecteerd door Nuclei.</t>
-  </si>
-  <si>
     <t>Actieve hosts: 192.168.56.10, 192.168.56.11. Open poorten op 192.168.56.11: 21/tcp (FTP), 22/tcp (SSH), 80/tcp (HTTP). MAC-adres 192.168.56.11: 08:00:27:F1:30:6D (Oracle VirtualBox). Geen kwetsbaarheden gedetecteerd.</t>
   </si>
   <si>
@@ -221,12 +206,6 @@
     <t xml:space="preserve">Actieve host: 192.168.56.11. Open poorten: 21/tcp (FTP), 22/tcp (SSH), 23/tcp (Telnet), 25/tcp (SMTP), 53/tcp (DNS), 80/tcp (HTTP), 111/tcp (RPCbind), 139/tcp (NetBIOS), 445/tcp (Microsoft-DS), 512/tcp (Exec), 513/tcp (Login), 514/tcp (Shell), 1099/tcp (Java-RMI), 1524/tcp (Ingreslock), 2049/tcp (NFS), 2121/tcp (FTP), 3306/tcp (MySQL), 3632/tcp (Distccd), 5432/tcp (PostgreSQL), 5900/tcp (VNC), 6667/tcp (IRC), 8180/tcp (Unknown). MAC-adres: 08:00:27:F1:30:6D (Oracle VirtualBox). </t>
   </si>
   <si>
-    <t>Open TCP-poorten: 21 (FTP), 22 (SSH), 80 (HTTP). MAC-adres: 08:00:27:F1:30:6D (Oracle VirtualBox). HTTP-details (poort 80): Server: Apache/2.2.8 (Ubuntu) DAV/2, PHP: 5.2.4-2ubuntu5.10, Titel: Metasploitable2 - Linux, WebDAV: versie 2. Vulnerabilities (Apache 2.2.8): Meerdere kwetsbaarheden, waaronder 13 exploits met CVSS-score 10.0 (o.a. CVE-2010-0425), 46 exploits met CVSS-score 9.8 (o.a. CVE-2024-38476, CVE-2022-31813), en diverse andere met scores van 9.1 tot 1.2. Webdirectories: /dav/, /dvwa/, /mutillidae/, /phpMyAdmin/, /twiki/. WAF: Geen WAF gedetecteerd (7 verzoeken). OSINT (theHarvester): 5 interessante URL's: http://192.168.56.11, http://192.168.56.11/, http://192.168.56.11/mutillidae/, http://192.168.56.11/mutillidae/?page=home.php, http://192.168.56.11/mutillidae/index.php?page=home.php. 14 e-mailadressen: bgx_xuliangwei@192.168.56.11, cinder@192.168.56.11, dolphinscheduler@192.168.56.11, git@192.168.56.11, glance@192.168.56.11, keystone@192.168.56.11, neutron@192.168.56.11, nova@192.168.56.11, openstack@192.168.56.11, oracle@192.168.56.11, root@192.168.56.11, sexywolfy@192.168.56.11, stack@192.168.56.11, xxxxxx@192.168.56.11. Geen subdomeinen of LinkedIn-links gevonden. Overige bevindingen: PHP-info gedetecteerd op /phpinfo.php. Geen sitemap.xml gevonden. Ontbrekende security-headers: Strict-Transport-Security, Permissions-Policy, X-Content-Type-Options, Clear-Site-Data, Cross-Origin-Embedder-Policy, Cross-Origin-Opener-Policy, Cross-Origin-Resource-Policy, Content-Security-Policy, X-Frame-Options, X-Permitted-Cross-Domain-Policies, Referrer-Policy. Overige diensten: FTP anonieme login (poort 21), Samba 3.0.20-Debian (poort 445, SMB 1.0), VNC (poort 5900, RFB 003.003), OpenSSH 4.7p1 (poort 22).</t>
-  </si>
-  <si>
-    <t>Open TCP-poorten: 21 (FTP), 22 (SSH), 23 (Telnet), 25 (SMTP), 53 (Domain), 80 (HTTP), 111 (RPCbind), 139 (NetBIOS-SSN), 445 (Microsoft-DS), 512 (Exec), 513 (Login), 514 (Shell), 1099 (RMIregistry), 1524 (Ingreslock), 2049 (NFS), 2121 (CCProxy-FTP), 3306 (MySQL), 3632 (Distccd), 5432 (PostgreSQL), 5900 (VNC), 6000 (X11), 6200 (LM-X), 6667 (IRC), 6697 (IRCs-U), 8009 (AJP13), 8180 (Unknown), 8787 (Msgsrvr), 33440 (Unknown), 36593 (Unknown), 36607 (Unknown), 41276 (Unknown). Open UDP-poorten: 53 (Domain), 69 (TFTP, gefilterd), 137 (NetBIOS-NS), 138 (NetBIOS-DGM, gefilterd), 161 (SNMP, gefilterd), 520 (Route, gefilterd), 2049 (NFS). MAC-adres: 08:00:27:F1:30:6D (Oracle VirtualBox). Kwetsbaarheden (Nuclei): Meerdere hoge prioriteit kwetsbaarheden, waaronder: CVE-2012-1823 (PHP, poort 80), PostgreSQL standaardlogins en database-toegang (poort 5432, gebruikersnaam/wachtwoord: postgres), CVE-2004-2687 (Distccd, poort 3632), anonieme FTP-login (poort 21). Webkwetsbaarheden (poort 80): Apache 2.2.8 (Ubuntu) DAV/2, PHP 5.2.4-2ubuntu5.10, geen WAF gedetecteerd, ontbrekende security-headers (o.a. Strict-Transport-Security, Content-Security-Policy), PHP-info op /phpinfo.php, phpMyAdmin op /phpMyAdmin/, clickjacking-risico. Overige diensten: Samba 3.0.20-Debian (poort 445, SMB 1.0), OpenSSH 4.7p1 (poort 22), VNC (poort 5900, RFB 003.003), PostgreSQL 8.3.1 (poort 5432). Apache-kwetsbaarheden: Talloze exploits, waaronder 14 met CVSS-score 10.0 (o.a. CVE-2010-0425), 46 met CVSS-score 9.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">host en poortdetectie </t>
   </si>
   <si>
@@ -287,18 +266,12 @@
     <t>makkelijk</t>
   </si>
   <si>
-    <t>Open Ports: 21,22,23,25,53,111,139,445,512,513,514,1524,2049,3306,3632,5432,34170,38760,54261,55097;Nmap Results: 21/tcp (ftp, vsftpd 2.3.4), 22/tcp (ssh, OpenSSH 4.7p1 Debian 8ubuntu1, protocol 2.0), 23/tcp (telnet, Linux telnetd), 25/tcp (smtp, Postfix smtpd), 53/tcp (domain, ISC BIND 9.4.2), 111/tcp (rpcbind, 2, RPC #100000), 139/tcp (netbios-ssn, Samba smbd 3.X-4.X, workgroup: WORKGROUP), 445/tcp (microsoft-ds, Samba smbd 3.X-4.X, workgroup: WORKGROUP), 512/tcp (exec, netkit-rsh rexecd), 513/tcp (login), 514/tcp (shell, Netkit rshd), 1524/tcp (ingreslock), 2049/tcp (nfs, 2-4, RPC #100003), 3306/tcp (mysql, MySQL 5.0.51a-3ubuntu5), 3632/tcp (distccd, distccd v1, GNU 4.2.4 Ubuntu), 5432/tcp (postgresql, PostgreSQL DB 8.3.0-8.3.7), 34170/tcp (unknown), 38760/tcp (unknown), 54261/tcp (unknown), 55097/tcp (unknown);Host Info: metasploitable.localdomain, irc.Metasploitable.LAN, OS: Unix/Linux, CPE: cpe:/o:linux:linux_kernel;MAC: 08:00:27:F1:30:6D (PCS Systemtechnik/Oracle VirtualBox);Packets: Sent 21 (908B), Received 2061 (82.508KB);</t>
-  </si>
-  <si>
     <t>Open Ports: 21,22,23,25,53,111,139,445,512,513,514,1524,2049,3306,3632,5432,5900,6000,6667,6697,8787,34170,38760,54261,55097;Nmap Results: 21/tcp (ftp, vsftpd 2.3.4), 22/tcp (ssh, OpenSSH 4.7p1 Debian 8ubuntu1, protocol 2.0), 23/tcp (telnet, Linux telnetd), 25/tcp (smtp, Postfix smtpd), 53/tcp (domain, ISC BIND 9.4.2), 111/tcp (rpcbind, 2, RPC #100000), 139/tcp (netbios-ssn, Samba smbd 3.X-4.X, workgroup: WORKGROUP), 445/tcp (netbios-ssn, Samba smbd 3.X-4.X, workgroup: WORKGROUP), 512/tcp (exec, netkit-rsh rexecd), 513/tcp (login), 514/tcp (shell, Netkit rshd), 1524/tcp (bindshell, Metasploitable root shell), 2049/tcp (nfs, 2-4, RPC #100003), 3306/tcp (mysql, MySQL 5.0.51a-3ubuntu5), 3632/tcp (distccd, distccd v1, GNU 4.2.4 Ubuntu), 5432/tcp (postgresql, PostgreSQL DB 8.3.0-8.3.7), 5900/tcp (vnc, VNC, protocol 3.3), 6000/tcp (X11, access denied), 6667/tcp (irc, UnrealIRCd), 6697/tcp (irc, UnrealIRCd), 8787/tcp (drb, Ruby DRb RMI, Ruby 1.8), 34170/tcp (mountd, 1-3, RPC #100005), 38760/tcp (status, 1, RPC #100024), 54261/tcp (java-rmi, GNU Classpath grmiregistry), 55097/tcp (nlockmgr, 1-4, RPC #100021);Host Info: metasploitable.localdomain, irc.Metasploitable.LAN, OS: Unix/Linux, CPE: cpe:/o:linux:linux_kernel;MAC: 08:00:27:F1:30:6D (PCS Systemtechnik/Oracle VirtualBox);Packets: Sent 26 (1.128KB), Received 1040 (41.688KB);</t>
   </si>
   <si>
     <t>Open Ports: 21,22,23,25,53,80,111,139,445,512,513,514,1524,2049,2121,3306,3632,5432,5900,6000,6667,6697,8787,34170,38760,54261,55097;Nmap Results: 21/tcp (ftp), 22/tcp (ssh), 23/tcp (telnet), 25/tcp (smtp), 53/tcp (domain), 80/tcp (http), 111/tcp (rpcbind), 139/tcp (netbios-ssn), 445/tcp (microsoft-ds), 512/tcp (exec), 513/tcp (login), 514/tcp (shell), 1524/tcp (ingreslock), 2049/tcp (nfs), 2121/tcp (ccproxy-ftp), 3306/tcp (mysql), 3632/tcp (distccd), 5432/tcp (postgresql), 5900/tcp (vnc), 6000/tcp (X11), 6667/tcp (irc), 6697/tcp (ircs-u), 8787/tcp (msgsrvr), 34170/tcp (unknown), 38760/tcp (unknown), 54261/tcp (unknown), 55097/tcp (unknown);Host Info: metasploitable.localdomain, OS: Unix/Linux, CPE: cpe:/o:linux:linux_kernel;MAC: 08:00:27:F1:30:6D (PCS Systemtechnik/Oracle VirtualBox);Packets: Sent 28 (1.216KB), Received 28 (1.216KB);</t>
   </si>
   <si>
-    <t>Open Ports: 21,22,23,25,80,3306,5432,5900;Nmap Results: 21/tcp (ftp, vsftpd 2.3.4), 22/tcp (ssh, OpenSSH 4.7p1 Debian 8ubuntu1, protocol 2.0), 23/tcp (telnet, Linux telnetd), 25/tcp (smtp, Postfix smtpd), 80/tcp (http, Apache httpd 2.2.8, Ubuntu DAV/2), 3306/tcp (mysql), 5432/tcp (postgresql, PostgreSQL DB 8.3.0-8.3.7), 5900/tcp (vnc, VNC, protocol 3.3);Host Info: metasploitable.localdomain, OS: Unix/Linux, CPE: cpe:/o:linux:linux_kernel;MAC: 08:00:27:F1:30:6D (PCS Systemtechnik/Oracle VirtualBox);Packets: Sent 9 (380B), Received 9 (380B);Warnings: None, Output: rustscan_targeted.xml (XML)</t>
-  </si>
-  <si>
     <t xml:space="preserve">nuclei </t>
   </si>
   <si>
@@ -368,12 +341,6 @@
     <t>vuln gevonden : CVE-2012-1823 (PHP RCE) op http://192.168.56.11/index.php. 11 ontbrekende HTTP-beveiligingsheaders: Strict-Transport-Security, Content-Security-Policy, Permissions-Policy, X-Content-Type-Options, X-Permitted-Cross-Domain-Policies, Clear-Site-Data, Cross-Origin-Opener-Policy, X-Frame-Options, Referrer-Policy, Cross-Origin-Embedder-Policy, Cross-Origin-Resource-Policy.</t>
   </si>
   <si>
-    <t>vuln gevonden : CVE-2012-1823 (PHP RCE) op http://192.168.56.11:80/index.php. 11 ontbrekende HTTP-beveiligingsheaders (zoals hierboven). Langzamer door snelheidslimiet 5, 230 verzoeken gereduceerd.</t>
-  </si>
-  <si>
-    <t>vuln gevonden : CVE-2012-1823 (PHP RCE) op http://192.168.56.11:80/index.php. Poorten 3632, 2049, 513, 2121 overgeslagen (niet responsief). 2 URL’s responsief via httpx, 5290 verzoeken gereduceerd</t>
-  </si>
-  <si>
     <t xml:space="preserve">bulk scan met eerder gevonden poorten </t>
   </si>
   <si>
@@ -384,6 +351,48 @@
   </si>
   <si>
     <t>4771.75sec</t>
+  </si>
+  <si>
+    <t>CyberScan uitgevoerd op IP 192.168.56.11 voor UDP-pingtest op poorten 53 tot 161. Resultaat: IP 192.168.56.11 is bereikbaar (alive). Geen open UDP-poorten gevonden, geen gedetailleerde poortinformatie beschikbaar.Deze scan bevestigt alleen dat het doel bereikbaar is via UDP.</t>
+  </si>
+  <si>
+    <t>TCP-poorten 1 tot 65535. Open TCP-poorten: 21 (FTP), 22 (SSH), 23 (Telnet), 25 (SMTP), 53 (DNS), 80 (HTTP), 111 (RPC), 139 (NetBIOS-SSN), 445 (SMB), 512 (exec), 513 (login), 514 (shell), 1099 (RMI), 1524 (ingreslock), 2049 (NFS), 2121 (FTP-alt), 3306 (MySQL), 3632 (distcc), 5432 (PostgreSQL), 5900 (VNC), 6000 (X11), 6200, 6667 (IRC), 6697 (IRC), 8009 (AJP), 8180 (HTTP-alt), 8787, 33440, 36593, 36607, 41276. Onbekende services op poorten: 111, 445, 512, 513, 514, 1099, 1524, 2049, 2121, 3632, 5432, 5900, 6000, 6200, 6667, 6697, 8009, 8180, 8787, 33440, 36593, 36607 en 41276.</t>
+  </si>
+  <si>
+    <t>TCP-poorten 21 tot 8180. Open TCP-poorten: 21 (FTP), 22 (SSH), 23 (Telnet), 25 (SMTP), 53 (DNS), 80 (HTTP), 111 (RPC), 139 (NetBIOS-SSN), 445 (SMB), 512 (exec), 513 (login), 514 (shell), 1099 (RMI), 1524 (ingreslock), 2049 (NFS), 2121 (FTP-alt), 3306 (MySQL), 3632 (distcc), 5432 (PostgreSQL), 5900 (VNC), 6000 (X11), 6200, 6667 (IRC), 6697 (IRC), 8009 (AJP), 8180 (HTTP-alt). Onbekende services op poorten: 111, 445, 512, 513, 514, 1099, 1524, 2049, 2121, 3632, 5432, 5900, 6000, 6200, 6667, 6697, 8009 en 8180.</t>
+  </si>
+  <si>
+    <t>Open poortenTCP en UDP: 21/tcp (FTP, vsftpd 2.3.4), 22/tcp (SSH, OpenSSH 4.7p1), 23/tcp (Telnet, Linux telnetd), 25/tcp (SMTP, Postfix), 53/tcp (DNS, ISC BIND 9.4.2), 80/tcp (HTTP, Apache 2.2.8), 111/tcp (RPCbind), 139/tcp (NetBIOS, Samba 3.0.20), 445/tcp (Microsoft-DS), 512/tcp (Exec, netkit-rsh), 513/tcp (Login), 514/tcp (Shell), 1099/tcp (Java-RMI, GNU Classpath), 1524/tcp (Ingreslock), 2049/tcp (NFS), 2121/tcp (FTP, ccproxy-ftp), 3306/tcp (MySQL, 5.0.51a), 3632/tcp (Distccd, v1), 5432/tcp (PostgreSQL, 8.3.0-8.3.7), 5900/tcp (VNC, protocol 3.3), 6000/tcp (X11), 6200/tcp (LM-X), 6667/tcp (IRC, UnrealIRCd), 6697/tcp (IRCs-u), 8009/tcp (AJP13), 8180/tcp (Unknown), 8787/tcp (Msgsrvr), 33440/tcp (Unknown), 36593/tcp (Unknown), 36607/tcp (Unknown), 41276/tcp (Unknown), 53/udp (DNS), 137/udp (NetBIOS-NS), 138/udp (NetBIOS-DGM), 2049/udp (NFS). MAC-adres: 08:00:27:F1:30:6D (Oracle VirtualBox).  sftpd 2.3.4. Kwetsbaarheid: CVE-2011-2523 (CVSS: 9.8, backdoor vulnerability). Kwetsbaarheidsscan op poort 22 (SSH);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: OpenSSH 4.7p1. Kwetsbaarheden: CVE-2023-38408 (CVSS: 9.8, remote code execution), CVE-2016-1908 (CVSS: 9.8, privilege escalation). Kwetsbaarheidsscan op poort 53 (DNS);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: ISC BIND 9.4.2. Kwetsbaarheden: CVE-2008-0122 (CVSS: 10.0, buffer overflow), CVE-2021-25216 (CVSS: 9.8, remote code execution). Kwetsbaarheidsscan op poort 80 (HTTP);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: Apache 2.2.8 (Ubuntu) DAV/2. Kwetsbaarheden: CVE-2010-0425 (CVSS: 10.0, remote code execution), CVE-2024-38476 (CVSS: 9.8, multiple exploits), CVE-2022-31813 (CVSS: 9.8, denial of service), en 10+ andere CVE's (CVSS ≥ 9.0). Kwetsbaarheidsscan op poort 3306 (MySQL);sniper -t 192.168.56.11 -m normal -w metasploitable;Dienst: MySQL 5.0.51a. Kwetsbaarheid: CVE-2017-15945 (CVSS: 7.8, privilege escalation). Kwetsbaarheidsscan op poort 5432 (PostgreSQL); PostgreSQL 8.3.0-8.3.7. Kwetsbaarheden: CVE-2013-1903 (CVSS: 10.0, remote code execution), CVE-2013-1902 (CVSS: 10.0, denial of service), CVE-2019-10211 (CVSS: 9.8, authentication bypass), en 10+ andere CVE's (CVSS ≥ 8.8). Webscan op poort 80 (HTTP);Server: Apache 2.2.8 (Ubuntu) DAV/2. Gevonden gevoelige paden: /phpMyAdmin/, /phpMyAdmin/index.php, /dvwa/login.php. Ontbrekende security-headers: Content-Security-Policy, X-Frame-Options.</t>
+  </si>
+  <si>
+    <t>Open TCP-poorten: 21 (FTP), 22 (SSH), 80 (HTTP). MAC-adres: 08:00:27:F1:30:6D (Oracle VirtualBox). HTTP-details (poort 80): Server: Apache/2.2.8 (Ubuntu) DAV/2, PHP: 5.2.4-2ubuntu5.10, Titel: Metasploitable2 - Linux, WebDAV: versie 2. Vulnerabilities (Apache 2.2.8): Meerdere kwetsbaarheden, waaronder 13 exploits met CVSS-score 10.0 (o.a. CVE-2010-0425), 46 exploits met CVSS-score 9.8 (o.a. CVE-2024-38476, CVE-2022-31813), en meerder anderescores van 9.1 tot 1.2. gevoelige webdirectorys: /dav/, /dvwa/, /mutillidae/, /phpMyAdmin/, /twiki/. WAF: Geen WAF gedetecteerd (7 verzoeken). OSINT (theHarvester): 5 interessante URL's: http://192.168.56.11, http://192.168.56.11/, http://192.168.56.11/mutillidae/, http://192.168.56.11/mutillidae/?page=home.php, http://192.168.56.11/mutillidae/index.php?page=home.php. 14 e-mailadressen: email@192.168.56.11 dus hier niet handig. Geen subdomeinen of LinkedIn-links gevonden. Overige bevindingen: PHP-info gedetecteerd op /phpinfo.php. Geen sitemap.xml gevonden. Ontbrekende security-headers: Strict-Transport-Security, Permissions-Policy, X-Content-Type-Options, Clear-Site-Data, Cross-Origin-Embedder-Policy, Cross-Origin-Opener-Policy, Cross-Origin-Resource-Policy, Content-Security-Policy, X-Frame-Options, X-Permitted-Cross-Domain-Policies, Referrer-Policy. Overige diensten: FTP anonieme login (poort 21), Samba 3.0.20-Debian (poort 445, SMB 1.0), VNC (poort 5900, RFB 003.003), OpenSSH 4.7p1 (poort 22).</t>
+  </si>
+  <si>
+    <t>Open TCP-poorten: 80 (HTTP). HTTP-details (poort 80): Server: Apache/2.2.8 (Ubuntu) DAV/2, PHP: 5.2.4-2ubuntu5.10, Titel: Metasploitable2 - Linux, WebDAV: versie 2. Vulnerabilities (Apache 2.2.8): Meerdere kwetsbaarheden gedetecteerd, waaronder 13 exploits met CVSS-score 10.0 (o.a. CVE-2010-0425), 46 exploits met CVSS-score 9.8 (o.a. CVE-2024-38476, CVE-2022-31813), en en verschillende scores van 9.1 tot 1.2. Overige bevindingen: Geen WAF gedetecteerd (7 verzoeken uitgevoerd). Authenticatie niet vereist voor pad "/". Formulieren gedetecteerd op: /phpMyAdmin/, /dvwa/, /twiki/TWikiDocumentation.html, /phpMyAdmin/index.php. Geen sitemap.xml gevonden. PHP-info gedetecteerd op /phpinfo.php. Ontbrekende security-headers: Strict-Transport-Security, Permissions-Policy, X-Content-Type-Options, Clear-Site-Data, Cross-Origin-Embedder-Policy, Cross-Origin-Opener-Policy, Cross-Origin-Resource-Policy, Content-Security-Policy, X-Frame-Options, X-Permitted-Cross-Domain-Policies, Referrer-Policy. Overige diensten: FTP anonieme login (poort 21), Samba 3.0.20-Debian (poort 445, SMB 1.0), VNC (poort 5900, RFB 003.003), OpenSSH 4.7p1 (poort 22).</t>
+  </si>
+  <si>
+    <t>Open TCP-poorten: 21 (FTP), 22 (SSH), 23 (Telnet), 25 (SMTP), 53 (Domain), 80 (HTTP), 111 (RPCbind), 139 (NetBIOS-SSN), 445 (Microsoft-DS), 512 (Exec), 513 (Login), 514 (Shell), 1099 (RMIregistry), 1524 (Ingreslock), 2049 (NFS), 2121 (CCProxy-FTP), 3306 (MySQL), 3632 (Distccd), 5432 (PostgreSQL), 5900 (VNC), 6000 (X11), 6200 (LM-X), 6667 (IRC), 6697 (IRCs-U), 8009 (AJP13), 8180 (Unknown), 8787 (Msgsrvr), 33440 (Unknown), 36593 (Unknown), 36607 (Unknown), 41276 (Unknown). Open UDP-poorten: 53 (Domain), 69 (TFTP, gefilterd), 137 (NetBIOS-NS), 138 (NetBIOS-DGM, gefilterd), 161 (SNMP, gefilterd), 520 (Route, gefilterd), 2049 (NFS). MAC-adres: 08:00:27:F1:30:6D (Oracle VirtualBox). Kwetsbaarheden (Nuclei): Meerdere hoge prioriteit kwetsbaarheden, waaronder: CVE-2012-1823 (PHP, poort 80), PostgreSQL standaardlogins en database-toegang (poort 5432, gebruikersnaam/wachtwoord: postgres), CVE-2004-2687 (Distccd, poort 3632), anonieme FTP-login (poort 21). Webkwetsbaarheden (poort 80): Apache 2.2.8 (Ubuntu) DAV/2, PHP 5.2.4-2ubuntu5.10, geen WAF gedetecteerd, ontbrekende security-headers (o.a. Strict-Transport-Security, Content-Security-Policy), PHP-info op /phpinfo.php, phpMyAdmin op /phpMyAdmin/, clickjacking-risico. Overige diensten: Samba 3.0.20-Debian (poort 445, SMB 1.0), OpenSSH 4.7p1 (poort 22), VNC (poort 5900, RFB 003.003), PostgreSQL 8.3.1 (poort 5432). Apache-kwetsbaarheden: Talloze exploits,  14 met CVSS-score 10.0 (o.a. CVE-2010-0425), 46 met CVSS-score 9.8 -1.2</t>
+  </si>
+  <si>
+    <t>Open Ports: 21,22,23,25,53,111,139,445,512,513,514,1524,2049,3306,3632,5432,34170,38760,54261,55097;Nmap resultaten: 21/tcp (ftp, vsftpd 2.3.4), 22/tcp (ssh, OpenSSH 4.7p1 Debian 8ubuntu1, protocol 2.0), 23/tcp (telnet, Linux telnetd), 25/tcp (smtp, Postfix smtpd), 53/tcp (domain, ISC BIND 9.4.2), 111/tcp (rpcbind, 2, RPC #100000), 139/tcp (netbios-ssn, Samba smbd 3.X-4.X, workgroup: WORKGROUP), 445/tcp (microsoft-ds, Samba smbd 3.X-4.X, workgroup: WORKGROUP), 512/tcp (exec, netkit-rsh rexecd), 513/tcp (login), 514/tcp (shell, Netkit rshd), 1524/tcp (ingreslock), 2049/tcp (nfs, 2-4, RPC #100003), 3306/tcp (mysql, MySQL 5.0.51a-3ubuntu5), 3632/tcp (distccd, distccd v1, GNU 4.2.4 Ubuntu), 5432/tcp (postgresql, PostgreSQL DB 8.3.0-8.3.7), 34170/tcp (unknown), 38760/tcp (unknown), 54261/tcp (unknown), 55097/tcp (unknown);Host Info: metasploitable.localdomain, irc.Metasploitable.LAN, OS: Unix/Linux, CPE: cpe:/o:linux:linux_kernel;MAC: 08:00:27:F1:30:6D (PCS Systemtechnik/Oracle VirtualBox);Packets: Sent 21 (908B), Received 2061 (82.508KB);</t>
+  </si>
+  <si>
+    <t>Open Ports: 21,22,23,25,80,3306,5432,5900;Nmap Results: 21/tcp (ftp, vsftpd 2.3.4), 22/tcp (ssh, OpenSSH 4.7p1 Debian 8ubuntu1, protocol 2.0), 23/tcp (telnet, Linux telnetd), 25/tcp (smtp, Postfix smtpd), 80/tcp (http, Apache httpd 2.2.8, Ubuntu DAV/2), 3306/tcp (mysql), 5432/tcp (postgresql, PostgreSQL DB 8.3.0-8.3.7), 5900/tcp (vnc, VNC, protocol 3.3);Host Info: metasploitable.localdomain, OS: Unix/Linux, CPE: cpe:/o:linux:linux_kernel;MAC: 08:00:27:F1:30:6D (PCS Systemtechnik/Oracle VirtualBox);Packets: Sent 9 (380B), Received 9 (380B); Output staat ook in : rustscan_targeted.xml (XML)</t>
+  </si>
+  <si>
+    <t>vuln gevonden : CVE-2012-1823 (PHP RCE) op http://192.168.56.11:80/index.php. 11 ontbrekende HTTP-beveiligingsheaders Strict-Transport-Security, Content-Security-Policy, Permissions-Policy, X-Content-Type-Options, X-Permitted-Cross-Domain-Policies, Clear-Site-Data, Cross-Origin-Opener-Policy, X-Frame-Options, Referrer-Policy, Cross-Origin-Embedder-Policy, Cross-Origin-Resource-Policy.. Langzamer door snelheidslimiet 5, 230 verzoeken gereduceerd.</t>
+  </si>
+  <si>
+    <t>vuln gevonden : CVE-2012-1823 (PHP RCE) op http://192.168.56.11:80/index.php. Poorten 3632, 2049, 513, 2121 overgeslagen (niet responsief) alle andere poorten wel. 2 URL’s responsief via httpx, 5290 verzoeken gereduceerd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middel </t>
+  </si>
+  <si>
+    <t>makkelijk in gebruik</t>
+  </si>
+  <si>
+    <t>243.54sec</t>
   </si>
 </sst>
 </file>
@@ -835,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95E40B2-35C5-4B54-8C03-8DB9BB84AC4F}">
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -889,10 +898,16 @@
         <v>0.17</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -906,7 +921,7 @@
         <v>0.15</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -923,7 +938,7 @@
         <v>0.18</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -936,6 +951,12 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="C8" t="s">
@@ -951,13 +972,7 @@
         <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -974,7 +989,7 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -991,7 +1006,7 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1004,6 +1019,12 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="C13" t="s">
@@ -1012,14 +1033,14 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
       <c r="G13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1037,6 +1058,12 @@
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="C17" t="s">
@@ -1052,13 +1079,7 @@
         <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1066,7 +1087,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1075,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1092,7 +1113,7 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1109,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1123,15 +1144,15 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="C22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -1143,7 +1164,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1151,81 +1172,81 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I24" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="C25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="C26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
       </c>
       <c r="E26" s="4">
         <v>0.16</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="C27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E27" s="4">
         <v>0.48</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="C28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1233,64 +1254,64 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
       </c>
       <c r="E31" s="4">
         <v>0.08</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="C32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
       </c>
       <c r="E32" s="4">
         <v>0.05</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="C33" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
       </c>
       <c r="E33" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1298,69 +1319,69 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
       </c>
       <c r="E36" s="4">
         <v>1.43</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="C37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
       </c>
       <c r="E37" s="4">
         <v>0.03</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
       </c>
       <c r="E38" s="4">
         <v>0.15</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="C39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
       </c>
       <c r="E39" s="4">
         <v>0.39</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1384,22 +1405,18 @@
     <row r="45" spans="1:9">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:9">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="6"/>

--- a/graphics/vergelijking_recon_automatisch.xlsx
+++ b/graphics/vergelijking_recon_automatisch.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{724C1790-C3A8-4367-B425-6ECE3E1E18C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A423B39-BE7B-4FE4-BA01-E529AD30ED83}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3984AAF0-BB45-464A-8B81-864738E25F8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3984AAF0-BB45-464A-8B81-864738E25F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -523,6 +523,10 @@
     </a>
   </bag>
 </FeaturePropertyBags>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95E40B2-35C5-4B54-8C03-8DB9BB84AC4F}">
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/graphics/vergelijking_recon_automatisch.xlsx
+++ b/graphics/vergelijking_recon_automatisch.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{724C1790-C3A8-4367-B425-6ECE3E1E18C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A423B39-BE7B-4FE4-BA01-E529AD30ED83}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3984AAF0-BB45-464A-8B81-864738E25F8B}"/>
+    <workbookView xWindow="4392" yWindow="6876" windowWidth="17280" windowHeight="8880" xr2:uid="{3984AAF0-BB45-464A-8B81-864738E25F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95E40B2-35C5-4B54-8C03-8DB9BB84AC4F}">
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
